--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/11/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/11/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0899964</v>
       </c>
       <c r="B5" t="n">
-        <v>3.28966</v>
+        <v>3.31913</v>
       </c>
       <c r="C5" t="n">
-        <v>3289.66</v>
+        <v>3319.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.119974</v>
+        <v>0.120005</v>
       </c>
       <c r="B6" t="n">
-        <v>3.69786</v>
+        <v>4.25807</v>
       </c>
       <c r="C6" t="n">
-        <v>3697.86</v>
+        <v>4258.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.149977</v>
+        <v>0.150013</v>
       </c>
       <c r="B7" t="n">
-        <v>4.15484</v>
+        <v>5.24851</v>
       </c>
       <c r="C7" t="n">
-        <v>4154.84</v>
+        <v>5248.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.17993</v>
+        <v>0.179965</v>
       </c>
       <c r="B8" t="n">
-        <v>4.525770000000001</v>
+        <v>5.73666</v>
       </c>
       <c r="C8" t="n">
-        <v>4525.77</v>
+        <v>5736.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.209882</v>
+        <v>0.209917</v>
       </c>
       <c r="B9" t="n">
-        <v>4.90328</v>
+        <v>6.24754</v>
       </c>
       <c r="C9" t="n">
-        <v>4903.28</v>
+        <v>6247.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.239834</v>
+        <v>0.23987</v>
       </c>
       <c r="B10" t="n">
-        <v>5.20128</v>
+        <v>6.595890000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>5201.28</v>
+        <v>6595.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269751</v>
+        <v>0.269786</v>
       </c>
       <c r="B11" t="n">
-        <v>5.4369</v>
+        <v>6.82322</v>
       </c>
       <c r="C11" t="n">
-        <v>5436.9</v>
+        <v>6823.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299652</v>
+        <v>0.299687</v>
       </c>
       <c r="B12" t="n">
-        <v>5.63896</v>
+        <v>7.031770000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>5638.96</v>
+        <v>7031.77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329553</v>
+        <v>0.329584</v>
       </c>
       <c r="B13" t="n">
-        <v>5.80683</v>
+        <v>7.19857</v>
       </c>
       <c r="C13" t="n">
-        <v>5806.83</v>
+        <v>7198.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359454</v>
+        <v>0.359485</v>
       </c>
       <c r="B14" t="n">
-        <v>5.97929</v>
+        <v>7.347390000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>5979.29</v>
+        <v>7347.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389355</v>
+        <v>0.389386</v>
       </c>
       <c r="B15" t="n">
-        <v>6.10621</v>
+        <v>7.47621</v>
       </c>
       <c r="C15" t="n">
-        <v>6106.21</v>
+        <v>7476.21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419256</v>
+        <v>0.419287</v>
       </c>
       <c r="B16" t="n">
-        <v>6.254420000000001</v>
+        <v>7.58848</v>
       </c>
       <c r="C16" t="n">
-        <v>6254.42</v>
+        <v>7588.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449157</v>
+        <v>0.449188</v>
       </c>
       <c r="B17" t="n">
-        <v>6.37569</v>
+        <v>7.696359999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>6375.69</v>
+        <v>7696.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479058</v>
+        <v>0.479089</v>
       </c>
       <c r="B18" t="n">
-        <v>6.48015</v>
+        <v>7.778060000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>6480.15</v>
+        <v>7778.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5089590000000001</v>
+        <v>0.5089900000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>6.588850000000001</v>
+        <v>7.867470000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>6588.85</v>
+        <v>7867.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.53886</v>
+        <v>0.538891</v>
       </c>
       <c r="B20" t="n">
-        <v>6.69535</v>
+        <v>7.93407</v>
       </c>
       <c r="C20" t="n">
-        <v>6695.35</v>
+        <v>7934.07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.568757</v>
+        <v>0.568792</v>
       </c>
       <c r="B21" t="n">
-        <v>6.7915</v>
+        <v>8.004760000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>6791.5</v>
+        <v>8004.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5987710000000001</v>
+        <v>0.5988059999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>6.88215</v>
+        <v>8.07151</v>
       </c>
       <c r="C22" t="n">
-        <v>6882.15</v>
+        <v>8071.51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628915</v>
+        <v>0.628946</v>
       </c>
       <c r="B23" t="n">
-        <v>6.96671</v>
+        <v>8.12968</v>
       </c>
       <c r="C23" t="n">
-        <v>6966.71</v>
+        <v>8129.68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659056</v>
+        <v>0.659091</v>
       </c>
       <c r="B24" t="n">
-        <v>7.04661</v>
+        <v>8.18281</v>
       </c>
       <c r="C24" t="n">
-        <v>7046.61</v>
+        <v>8182.81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.689196</v>
+        <v>0.689231</v>
       </c>
       <c r="B25" t="n">
-        <v>7.12358</v>
+        <v>8.232139999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>7123.58</v>
+        <v>8232.139999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719341</v>
+        <v>0.719372</v>
       </c>
       <c r="B26" t="n">
-        <v>7.19633</v>
+        <v>8.279440000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>7196.33</v>
+        <v>8279.440000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749481</v>
+        <v>0.749516</v>
       </c>
       <c r="B27" t="n">
-        <v>7.265000000000001</v>
+        <v>8.32433</v>
       </c>
       <c r="C27" t="n">
-        <v>7265</v>
+        <v>8324.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779626</v>
+        <v>0.779657</v>
       </c>
       <c r="B28" t="n">
-        <v>7.32979</v>
+        <v>8.366379999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>7329.79</v>
+        <v>8366.379999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.809766</v>
+        <v>0.809801</v>
       </c>
       <c r="B29" t="n">
-        <v>7.391010000000001</v>
+        <v>8.405469999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>7391.01</v>
+        <v>8405.469999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.839906</v>
+        <v>0.839942</v>
       </c>
       <c r="B30" t="n">
-        <v>7.45145</v>
+        <v>8.440760000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>7451.45</v>
+        <v>8440.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.870051</v>
+        <v>0.870082</v>
       </c>
       <c r="B31" t="n">
-        <v>7.51231</v>
+        <v>8.4735</v>
       </c>
       <c r="C31" t="n">
-        <v>7512.31</v>
+        <v>8473.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900191</v>
+        <v>0.900227</v>
       </c>
       <c r="B32" t="n">
-        <v>7.571</v>
+        <v>8.506440000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>7571</v>
+        <v>8506.440000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.930332</v>
+        <v>0.9303670000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>7.62307</v>
+        <v>8.53848</v>
       </c>
       <c r="C33" t="n">
-        <v>7623.07</v>
+        <v>8538.48</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.960477</v>
+        <v>0.960507</v>
       </c>
       <c r="B34" t="n">
-        <v>7.67243</v>
+        <v>8.56587</v>
       </c>
       <c r="C34" t="n">
-        <v>7672.43</v>
+        <v>8565.870000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.990617</v>
+        <v>0.990652</v>
       </c>
       <c r="B35" t="n">
-        <v>7.725020000000001</v>
+        <v>8.5924</v>
       </c>
       <c r="C35" t="n">
-        <v>7725.02</v>
+        <v>8592.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02076</v>
+        <v>1.02079</v>
       </c>
       <c r="B36" t="n">
-        <v>7.77395</v>
+        <v>8.619299999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>7773.95</v>
+        <v>8619.299999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0509</v>
+        <v>1.05093</v>
       </c>
       <c r="B37" t="n">
-        <v>7.81742</v>
+        <v>8.64189</v>
       </c>
       <c r="C37" t="n">
-        <v>7817.42</v>
+        <v>8641.889999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08104</v>
+        <v>1.08108</v>
       </c>
       <c r="B38" t="n">
-        <v>7.8653</v>
+        <v>8.665570000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>7865.3</v>
+        <v>8665.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11119</v>
+        <v>1.11122</v>
       </c>
       <c r="B39" t="n">
-        <v>7.90756</v>
+        <v>8.68633</v>
       </c>
       <c r="C39" t="n">
-        <v>7907.56</v>
+        <v>8686.33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14133</v>
+        <v>1.14136</v>
       </c>
       <c r="B40" t="n">
-        <v>7.94858</v>
+        <v>8.70682</v>
       </c>
       <c r="C40" t="n">
-        <v>7948.58</v>
+        <v>8706.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.17147</v>
+        <v>1.1715</v>
       </c>
       <c r="B41" t="n">
-        <v>7.99123</v>
+        <v>8.725490000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>7991.23</v>
+        <v>8725.49</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20161</v>
+        <v>1.20164</v>
       </c>
       <c r="B42" t="n">
-        <v>8.027899999999999</v>
+        <v>8.743620000000002</v>
       </c>
       <c r="C42" t="n">
-        <v>8027.9</v>
+        <v>8743.620000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23175</v>
+        <v>1.23179</v>
       </c>
       <c r="B43" t="n">
-        <v>8.0686</v>
+        <v>8.759969999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>8068.6</v>
+        <v>8759.969999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26189</v>
+        <v>1.26193</v>
       </c>
       <c r="B44" t="n">
-        <v>8.102959999999999</v>
+        <v>8.776149999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>8102.96</v>
+        <v>8776.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29204</v>
+        <v>1.29207</v>
       </c>
       <c r="B45" t="n">
-        <v>8.141080000000001</v>
+        <v>8.790290000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>8141.08</v>
+        <v>8790.290000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32218</v>
+        <v>1.32221</v>
       </c>
       <c r="B46" t="n">
-        <v>8.17356</v>
+        <v>8.804450000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>8173.56</v>
+        <v>8804.450000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.35232</v>
+        <v>1.35235</v>
       </c>
       <c r="B47" t="n">
-        <v>8.209110000000001</v>
+        <v>8.817200000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>8209.110000000001</v>
+        <v>8817.200000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.38246</v>
+        <v>1.38249</v>
       </c>
       <c r="B48" t="n">
-        <v>8.24037</v>
+        <v>8.828899999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>8240.370000000001</v>
+        <v>8828.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4126</v>
+        <v>1.41264</v>
       </c>
       <c r="B49" t="n">
-        <v>8.272350000000001</v>
+        <v>8.84022</v>
       </c>
       <c r="C49" t="n">
-        <v>8272.35</v>
+        <v>8840.219999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.44275</v>
+        <v>1.44278</v>
       </c>
       <c r="B50" t="n">
-        <v>8.303879999999999</v>
+        <v>8.85031</v>
       </c>
       <c r="C50" t="n">
-        <v>8303.879999999999</v>
+        <v>8850.309999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.47289</v>
+        <v>1.47292</v>
       </c>
       <c r="B51" t="n">
-        <v>8.332330000000001</v>
+        <v>8.859459999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>8332.33</v>
+        <v>8859.459999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50303</v>
+        <v>1.50265</v>
       </c>
       <c r="B52" t="n">
-        <v>8.36308</v>
+        <v>8.86809</v>
       </c>
       <c r="C52" t="n">
-        <v>8363.08</v>
+        <v>8868.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.53317</v>
+        <v>1.53237</v>
       </c>
       <c r="B53" t="n">
-        <v>8.39019</v>
+        <v>8.8759</v>
       </c>
       <c r="C53" t="n">
-        <v>8390.190000000001</v>
+        <v>8875.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.56331</v>
+        <v>1.56211</v>
       </c>
       <c r="B54" t="n">
-        <v>8.417389999999999</v>
+        <v>8.882719999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>8417.389999999999</v>
+        <v>8882.719999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.59345</v>
+        <v>1.59183</v>
       </c>
       <c r="B55" t="n">
-        <v>8.445309999999999</v>
+        <v>8.888809999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>8445.309999999999</v>
+        <v>8888.809999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6236</v>
+        <v>1.62156</v>
       </c>
       <c r="B56" t="n">
-        <v>8.470229999999999</v>
+        <v>8.89424</v>
       </c>
       <c r="C56" t="n">
-        <v>8470.23</v>
+        <v>8894.24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65374</v>
+        <v>1.65129</v>
       </c>
       <c r="B57" t="n">
-        <v>8.495559999999999</v>
+        <v>8.89897</v>
       </c>
       <c r="C57" t="n">
-        <v>8495.559999999999</v>
+        <v>8898.969999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68388</v>
+        <v>1.68118</v>
       </c>
       <c r="B58" t="n">
-        <v>8.52115</v>
+        <v>8.902940000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>8521.15</v>
+        <v>8902.940000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71402</v>
+        <v>1.71148</v>
       </c>
       <c r="B59" t="n">
-        <v>8.54449</v>
+        <v>8.90615</v>
       </c>
       <c r="C59" t="n">
-        <v>8544.49</v>
+        <v>8906.15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.74416</v>
+        <v>1.74177</v>
       </c>
       <c r="B60" t="n">
-        <v>8.56728</v>
+        <v>8.908610000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>8567.280000000001</v>
+        <v>8908.610000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77431</v>
+        <v>1.77206</v>
       </c>
       <c r="B61" t="n">
-        <v>8.590729999999999</v>
+        <v>8.910299999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>8590.73</v>
+        <v>8910.299999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80445</v>
+        <v>1.80235</v>
       </c>
       <c r="B62" t="n">
-        <v>8.612920000000001</v>
+        <v>8.91126</v>
       </c>
       <c r="C62" t="n">
-        <v>8612.92</v>
+        <v>8911.26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83459</v>
+        <v>1.83261</v>
       </c>
       <c r="B63" t="n">
-        <v>8.633690000000001</v>
+        <v>8.911379999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>8633.690000000001</v>
+        <v>8911.379999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86473</v>
+        <v>1.86247</v>
       </c>
       <c r="B64" t="n">
-        <v>8.654399999999999</v>
+        <v>8.91066</v>
       </c>
       <c r="C64" t="n">
-        <v>8654.4</v>
+        <v>8910.66</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89487</v>
+        <v>1.89234</v>
       </c>
       <c r="B65" t="n">
-        <v>8.675190000000001</v>
+        <v>8.90906</v>
       </c>
       <c r="C65" t="n">
-        <v>8675.190000000001</v>
+        <v>8909.059999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92502</v>
+        <v>1.9222</v>
       </c>
       <c r="B66" t="n">
-        <v>8.695129999999999</v>
+        <v>8.90663</v>
       </c>
       <c r="C66" t="n">
-        <v>8695.129999999999</v>
+        <v>8906.629999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95516</v>
+        <v>1.95207</v>
       </c>
       <c r="B67" t="n">
-        <v>8.714040000000001</v>
+        <v>8.903409999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>8714.040000000001</v>
+        <v>8903.41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.9853</v>
+        <v>1.98194</v>
       </c>
       <c r="B68" t="n">
-        <v>8.732430000000001</v>
+        <v>8.899370000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>8732.43</v>
+        <v>8899.370000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01522</v>
+        <v>2.0118</v>
       </c>
       <c r="B69" t="n">
-        <v>8.750819999999999</v>
+        <v>8.894549999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>8750.82</v>
+        <v>8894.549999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04495</v>
+        <v>2.04167</v>
       </c>
       <c r="B70" t="n">
-        <v>8.76891</v>
+        <v>8.888909999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>8768.91</v>
+        <v>8888.91</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07468</v>
+        <v>2.07154</v>
       </c>
       <c r="B71" t="n">
-        <v>8.78632</v>
+        <v>8.88246</v>
       </c>
       <c r="C71" t="n">
-        <v>8786.32</v>
+        <v>8882.459999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10441</v>
+        <v>2.10141</v>
       </c>
       <c r="B72" t="n">
-        <v>8.802940000000001</v>
+        <v>8.875159999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>8802.940000000001</v>
+        <v>8875.16</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.13414</v>
+        <v>2.13127</v>
       </c>
       <c r="B73" t="n">
-        <v>8.81898</v>
+        <v>8.86707</v>
       </c>
       <c r="C73" t="n">
-        <v>8818.98</v>
+        <v>8867.07</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16386</v>
+        <v>2.16114</v>
       </c>
       <c r="B74" t="n">
-        <v>8.83469</v>
+        <v>8.8581</v>
       </c>
       <c r="C74" t="n">
-        <v>8834.690000000001</v>
+        <v>8858.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.1936</v>
+        <v>2.19101</v>
       </c>
       <c r="B75" t="n">
-        <v>8.85018</v>
+        <v>8.848229999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>8850.18</v>
+        <v>8848.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22332</v>
+        <v>2.22087</v>
       </c>
       <c r="B76" t="n">
-        <v>8.865270000000001</v>
+        <v>8.837530000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>8865.27</v>
+        <v>8837.530000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25306</v>
+        <v>2.25074</v>
       </c>
       <c r="B77" t="n">
-        <v>8.87987</v>
+        <v>8.825760000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>8879.870000000001</v>
+        <v>8825.76</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28278</v>
+        <v>2.28061</v>
       </c>
       <c r="B78" t="n">
-        <v>8.893940000000001</v>
+        <v>8.812580000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>8893.940000000001</v>
+        <v>8812.58</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31251</v>
+        <v>2.31047</v>
       </c>
       <c r="B79" t="n">
-        <v>8.90757</v>
+        <v>8.798360000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>8907.57</v>
+        <v>8798.360000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34224</v>
+        <v>2.34034</v>
       </c>
       <c r="B80" t="n">
-        <v>8.920729999999999</v>
+        <v>8.783190000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>8920.73</v>
+        <v>8783.190000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37284</v>
+        <v>2.37021</v>
       </c>
       <c r="B81" t="n">
-        <v>8.933760000000001</v>
+        <v>8.76713</v>
       </c>
       <c r="C81" t="n">
-        <v>8933.76</v>
+        <v>8767.129999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40356</v>
+        <v>2.40007</v>
       </c>
       <c r="B82" t="n">
-        <v>8.94651</v>
+        <v>8.74995</v>
       </c>
       <c r="C82" t="n">
-        <v>8946.51</v>
+        <v>8749.950000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43428</v>
+        <v>2.42994</v>
       </c>
       <c r="B83" t="n">
-        <v>8.95894</v>
+        <v>8.731729999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>8958.940000000001</v>
+        <v>8731.73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.465</v>
+        <v>2.4598</v>
       </c>
       <c r="B84" t="n">
-        <v>8.97095</v>
+        <v>8.712340000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>8970.950000000001</v>
+        <v>8712.34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49572</v>
+        <v>2.48967</v>
       </c>
       <c r="B85" t="n">
-        <v>8.98258</v>
+        <v>8.691709999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>8982.58</v>
+        <v>8691.709999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52643</v>
+        <v>2.51954</v>
       </c>
       <c r="B86" t="n">
-        <v>8.993830000000001</v>
+        <v>8.669600000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>8993.83</v>
+        <v>8669.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55716</v>
+        <v>2.5494</v>
       </c>
       <c r="B87" t="n">
-        <v>9.004670000000001</v>
+        <v>8.64583</v>
       </c>
       <c r="C87" t="n">
-        <v>9004.67</v>
+        <v>8645.83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.58788</v>
+        <v>2.57927</v>
       </c>
       <c r="B88" t="n">
-        <v>9.0151</v>
+        <v>8.620540000000002</v>
       </c>
       <c r="C88" t="n">
-        <v>9015.1</v>
+        <v>8620.540000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.61841</v>
+        <v>2.60914</v>
       </c>
       <c r="B89" t="n">
-        <v>9.02516</v>
+        <v>8.593680000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>9025.16</v>
+        <v>8593.68</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64828</v>
+        <v>2.63901</v>
       </c>
       <c r="B90" t="n">
-        <v>9.034799999999999</v>
+        <v>8.565250000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>9034.799999999999</v>
+        <v>8565.25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67814</v>
+        <v>2.66887</v>
       </c>
       <c r="B91" t="n">
-        <v>9.044090000000001</v>
+        <v>8.535069999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>9044.09</v>
+        <v>8535.07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.70801</v>
+        <v>2.69874</v>
       </c>
       <c r="B92" t="n">
-        <v>9.053000000000001</v>
+        <v>8.503200000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>9053</v>
+        <v>8503.200000000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73787</v>
+        <v>2.72861</v>
       </c>
       <c r="B93" t="n">
-        <v>9.061540000000001</v>
+        <v>8.4695</v>
       </c>
       <c r="C93" t="n">
-        <v>9061.540000000001</v>
+        <v>8469.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.76774</v>
+        <v>2.75847</v>
       </c>
       <c r="B94" t="n">
-        <v>9.06976</v>
+        <v>8.433850000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>9069.76</v>
+        <v>8433.85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.79761</v>
+        <v>2.78834</v>
       </c>
       <c r="B95" t="n">
-        <v>9.0776</v>
+        <v>8.39616</v>
       </c>
       <c r="C95" t="n">
-        <v>9077.6</v>
+        <v>8396.16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.82748</v>
+        <v>2.81737</v>
       </c>
       <c r="B96" t="n">
-        <v>9.08511</v>
+        <v>8.35657</v>
       </c>
       <c r="C96" t="n">
-        <v>9085.110000000001</v>
+        <v>8356.57</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.85734</v>
+        <v>2.84678</v>
       </c>
       <c r="B97" t="n">
-        <v>9.09225</v>
+        <v>8.314549999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>9092.25</v>
+        <v>8314.549999999999</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.88721</v>
+        <v>2.87767</v>
       </c>
       <c r="B98" t="n">
-        <v>9.09904</v>
+        <v>8.2682</v>
       </c>
       <c r="C98" t="n">
-        <v>9099.040000000001</v>
+        <v>8268.200000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91708</v>
+        <v>2.90784</v>
       </c>
       <c r="B99" t="n">
-        <v>9.10547</v>
+        <v>8.220120000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>9105.469999999999</v>
+        <v>8220.120000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94694</v>
+        <v>2.93756</v>
       </c>
       <c r="B100" t="n">
-        <v>9.111549999999999</v>
+        <v>8.17027</v>
       </c>
       <c r="C100" t="n">
-        <v>9111.549999999999</v>
+        <v>8170.27</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97681</v>
+        <v>2.96682</v>
       </c>
       <c r="B101" t="n">
-        <v>9.117319999999999</v>
+        <v>8.11872</v>
       </c>
       <c r="C101" t="n">
-        <v>9117.32</v>
+        <v>8118.72</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.00667</v>
+        <v>2.99752</v>
       </c>
       <c r="B102" t="n">
-        <v>9.1227</v>
+        <v>8.061500000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>9122.700000000001</v>
+        <v>8061.5</v>
       </c>
     </row>
   </sheetData>
